--- a/Study/Computer Networking A Top-Down/Computer Networking A Top-Down 进度表.xlsx
+++ b/Study/Computer Networking A Top-Down/Computer Networking A Top-Down 进度表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>Data\文件名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -406,6 +406,14 @@
   </si>
   <si>
     <t>Delays(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-1-8 20:57:59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -556,6 +564,9 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -934,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.75" style="3" bestFit="1" customWidth="1"/>
@@ -952,7 +963,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +1130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1163,11 +1174,11 @@
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1180,9 +1191,9 @@
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1261,7 +1272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1278,7 +1289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1349,7 +1360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
@@ -1414,7 +1425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
@@ -1445,7 +1456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1493,7 +1504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -1505,6 +1516,20 @@
       </c>
       <c r="D33" s="3" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
